--- a/examples/crs-data.xlsx
+++ b/examples/crs-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ird/dev/iandinwoodie/pdfpop/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2B1919-6330-C64E-AE68-D81EF2458DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA879D9-42FA-0E46-BCDE-DE42D8304866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{CD85C6A4-5E50-462C-BEF8-CE6649697124}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Registration</t>
   </si>
@@ -142,48 +142,12 @@
     <t>Risk Tolerance</t>
   </si>
   <si>
-    <t>3A. Investment Advisory Fee</t>
-  </si>
-  <si>
-    <t>3B. Wrap Fee</t>
-  </si>
-  <si>
-    <t>Flexible Billing Acct 1</t>
-  </si>
-  <si>
-    <t>Flexible Billing Acct 2</t>
-  </si>
-  <si>
-    <t>Advisors fee includes</t>
-  </si>
-  <si>
-    <t>Advisors fee does not include</t>
-  </si>
-  <si>
-    <t>Client legal name</t>
-  </si>
-  <si>
-    <t>client legal name_2</t>
-  </si>
-  <si>
-    <t>Advisor legal name</t>
-  </si>
-  <si>
-    <t>Rep ID</t>
-  </si>
-  <si>
-    <t>123W</t>
-  </si>
-  <si>
     <t>5-10 years</t>
   </si>
   <si>
     <t>Aggressive</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>John Doe</t>
   </si>
   <si>
@@ -224,21 +188,6 @@
   </si>
   <si>
     <t>jane.doe@fake.com</t>
-  </si>
-  <si>
-    <t>123-123456</t>
-  </si>
-  <si>
-    <t>1234-1234</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Diana Prince</t>
   </si>
   <si>
     <t>Legal Address Cannot be a PO Box_2</t>
@@ -595,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DD1951-4935-4AA8-9BD0-EF2D1FCD52A2}">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -630,17 +579,9 @@
     <col min="27" max="27" width="24.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -696,7 +637,7 @@
         <v>18</v>
       </c>
       <c r="S1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="T1" t="s">
         <v>19</v>
@@ -728,38 +669,8 @@
       <c r="AC1" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -770,19 +681,19 @@
         <v>529</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1">
         <v>33239</v>
@@ -791,31 +702,31 @@
         <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
         <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s">
         <v>29</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="V2" s="1">
         <v>34368</v>
@@ -824,49 +735,22 @@
         <v>28</v>
       </c>
       <c r="X2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="Y2" t="s">
         <v>31</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="s">
         <v>27</v>
       </c>
       <c r="AB2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
